--- a/UnetModel/CompareParam.XLSX
+++ b/UnetModel/CompareParam.XLSX
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Spectrum_sensing_base_on_Deep_learning\UnetModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8FE9C5-EC65-46FA-B120-97B02802DEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF047A12-5D22-43FE-8912-A77940F64381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Compare" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Unet</t>
   </si>
@@ -40,16 +41,41 @@
   </si>
   <si>
     <t>Unetpp_gconv</t>
+  </si>
+  <si>
+    <t>Unetp_gconv</t>
+  </si>
+  <si>
+    <t>UnetE_gconv</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>IUnetE</t>
+  </si>
+  <si>
+    <t>IUnetE_gconv</t>
+  </si>
+  <si>
+    <t>The proportion of parameter offset after applying group convolution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,9 +130,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,33 +417,377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="1" max="2" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>42946113</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <v>3599301</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9AF12F-3550-475C-8BEF-35D55D210A75}">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1792</v>
+      </c>
+      <c r="B2">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>36928</v>
+      </c>
+      <c r="B3">
+        <v>36928</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>73856</v>
+      </c>
+      <c r="B4">
+        <v>18560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>147584</v>
+      </c>
+      <c r="B5">
+        <v>36992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>110656</v>
+      </c>
+      <c r="B6">
+        <v>55360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>36928</v>
+      </c>
+      <c r="B7">
+        <v>18496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>295168</v>
+      </c>
+      <c r="B8">
+        <v>37120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>590080</v>
+      </c>
+      <c r="B9">
+        <v>73984</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>442496</v>
+      </c>
+      <c r="B10">
+        <v>110720</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>147584</v>
+      </c>
+      <c r="B11">
+        <v>36992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1180160</v>
+      </c>
+      <c r="B12">
+        <v>74240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2359808</v>
+      </c>
+      <c r="B13">
+        <v>147968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1769728</v>
+      </c>
+      <c r="B14">
+        <v>221440</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>590080</v>
+      </c>
+      <c r="B15">
+        <v>73984</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>110656</v>
+      </c>
+      <c r="B16">
+        <v>55360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>36928</v>
+      </c>
+      <c r="B17">
+        <v>18496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4179616</v>
+      </c>
+      <c r="B18">
+        <v>148480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>9438208</v>
+      </c>
+      <c r="B19">
+        <v>295936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>7078400</v>
+      </c>
+      <c r="B20">
+        <v>442880</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2359808</v>
+      </c>
+      <c r="B21">
+        <v>147968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4719104</v>
+      </c>
+      <c r="B22">
+        <v>295424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2359808</v>
+      </c>
+      <c r="B23">
+        <v>147968</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2359552</v>
+      </c>
+      <c r="B24">
+        <v>295168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>590080</v>
+      </c>
+      <c r="B25">
+        <v>73984</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>442496</v>
+      </c>
+      <c r="B26">
+        <v>110720</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>147584</v>
+      </c>
+      <c r="B27">
+        <v>36992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>589952</v>
+      </c>
+      <c r="B28">
+        <v>147584</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>147548</v>
+      </c>
+      <c r="B29">
+        <v>36992</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>110656</v>
+      </c>
+      <c r="B30">
+        <v>55360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>36928</v>
+      </c>
+      <c r="B31">
+        <v>18496</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>221248</v>
+      </c>
+      <c r="B32">
+        <v>110656</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>36928</v>
+      </c>
+      <c r="B33">
+        <v>18496</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1154</v>
+      </c>
+      <c r="B34">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>196611</v>
+      </c>
+      <c r="B35">
+        <v>196611</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <f>SUM(A2:A35)</f>
+        <v>42946113</v>
+      </c>
+      <c r="B37" s="4">
+        <f>SUM(B2:B35)</f>
+        <v>3599301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <f>(A37-B37)/A37</f>
+        <v>0.91619029643031957</v>
       </c>
     </row>
   </sheetData>
